--- a/Questionnaire/SUS/Developer_SUS.xlsx
+++ b/Questionnaire/SUS/Developer_SUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Desktop\Master-Thesis\Questionnaire\SUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913E4064-673D-4C85-BFB9-E916C235D079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71A090-FF4F-4BA2-8FA3-9DACECAA9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="2430" windowWidth="18525" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -140,18 +140,18 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,159 +447,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N11" s="6" t="s">
@@ -607,9 +575,9 @@
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="5">
-        <f>((SUM(A3:A12)+SUM(C3:C12)+SUM(E3:E12)+SUM(G3:G12)+SUM(I3:I12))-(5*Q2))/2</f>
-        <v>17</v>
+      <c r="Q11" s="2">
+        <f>((SUM(A3:A12)+SUM(C3:C12)+SUM(E3:E12)+SUM(G3:G12)+SUM(I3:I12))-(5*Q2))/Q2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -618,21 +586,21 @@
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="5">
-        <f>((25*Q2)-(SUM(B3:B12)+SUM(D3:D12)+SUM(F3:F12)+SUM(H3:H12)+SUM(J3:J12)))/2</f>
-        <v>17.5</v>
+      <c r="Q12" s="2">
+        <f>((25*Q2)-(SUM(B3:B12)+SUM(D3:D12)+SUM(F3:F12)+SUM(H3:H12)+SUM(J3:J12)))/Q2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="2">
         <f>((Q11+Q12)*2.5)</f>
-        <v>86.25</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Questionnaire/SUS/Developer_SUS.xlsx
+++ b/Questionnaire/SUS/Developer_SUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Desktop\Master-Thesis\Questionnaire\SUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71A090-FF4F-4BA2-8FA3-9DACECAA9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55CB505-F216-420C-B4BA-5A6252442131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2430" windowWidth="18525" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -535,36 +535,196 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -577,7 +737,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f>((SUM(A3:A12)+SUM(C3:C12)+SUM(E3:E12)+SUM(G3:G12)+SUM(I3:I12))-(5*Q2))/Q2</f>
-        <v>20</v>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -588,7 +748,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f>((25*Q2)-(SUM(B3:B12)+SUM(D3:D12)+SUM(F3:F12)+SUM(H3:H12)+SUM(J3:J12)))/Q2</f>
-        <v>20</v>
+        <v>18.285714285714285</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -600,7 +760,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="2">
         <f>((Q11+Q12)*2.5)</f>
-        <v>100</v>
+        <v>87.857142857142847</v>
       </c>
     </row>
   </sheetData>
